--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>TotN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TotN</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t># severity levels 1-2</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t># severity level 3</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t># severity level 4</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t># severity level 5</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -512,44 +507,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>114297</v>
       </c>
       <c r="C2" t="n">
-        <v>114297</v>
+        <v>86.8</v>
       </c>
       <c r="D2" t="n">
-        <v>72.5</v>
+        <v>99264</v>
       </c>
       <c r="E2" t="n">
-        <v>82816</v>
+        <v>4.1</v>
       </c>
       <c r="F2" t="n">
-        <v>23.8</v>
+        <v>4653</v>
       </c>
       <c r="G2" t="n">
-        <v>27148</v>
+        <v>9.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>10380</v>
       </c>
       <c r="I2" t="n">
-        <v>3711</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>621</v>
+        <v>13.2</v>
       </c>
       <c r="L2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31481</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>15033</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -560,42 +552,39 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>59845</v>
       </c>
       <c r="C3" t="n">
-        <v>59845</v>
+        <v>30.5</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>18242</v>
       </c>
       <c r="E3" t="n">
-        <v>17095</v>
+        <v>65.7</v>
       </c>
       <c r="F3" t="n">
-        <v>66.90000000000001</v>
+        <v>39317</v>
       </c>
       <c r="G3" t="n">
-        <v>40017</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>2184</v>
       </c>
       <c r="I3" t="n">
-        <v>2112</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="K3" t="n">
-        <v>622</v>
+        <v>69.5</v>
       </c>
       <c r="L3" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42751</v>
-      </c>
-      <c r="N3" t="inlineStr">
+        <v>41604</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -608,42 +597,39 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>86336</v>
       </c>
       <c r="C4" t="n">
-        <v>86336</v>
+        <v>66.2</v>
       </c>
       <c r="D4" t="n">
-        <v>52.9</v>
+        <v>57184</v>
       </c>
       <c r="E4" t="n">
-        <v>45681</v>
+        <v>33.8</v>
       </c>
       <c r="F4" t="n">
-        <v>41.2</v>
+        <v>29152</v>
       </c>
       <c r="G4" t="n">
-        <v>35594</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>720</v>
+        <v>33.8</v>
       </c>
       <c r="L4" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40655</v>
-      </c>
-      <c r="N4" t="inlineStr">
+        <v>29152</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -656,42 +642,39 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>96362</v>
       </c>
       <c r="C5" t="n">
-        <v>96362</v>
+        <v>15.8</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6</v>
+        <v>15230</v>
       </c>
       <c r="E5" t="n">
-        <v>28517</v>
+        <v>73.5</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>70783</v>
       </c>
       <c r="G5" t="n">
-        <v>63559</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3617</v>
       </c>
       <c r="I5" t="n">
-        <v>3334</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>6732</v>
       </c>
       <c r="K5" t="n">
-        <v>952</v>
+        <v>84.2</v>
       </c>
       <c r="L5" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M5" t="n">
-        <v>67845</v>
-      </c>
-      <c r="N5" t="inlineStr">
+        <v>81132</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -704,42 +687,39 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>251037</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27988</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>220651</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>251037</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>46878</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>190045</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>2398</v>
       </c>
       <c r="I6" t="n">
-        <v>10513</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3601</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>204159</v>
-      </c>
-      <c r="N6" t="inlineStr">
+        <v>223050</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -752,42 +732,39 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>345131</v>
       </c>
       <c r="C7" t="n">
-        <v>345131</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>221321</v>
       </c>
       <c r="E7" t="n">
-        <v>231393</v>
+        <v>26.9</v>
       </c>
       <c r="F7" t="n">
-        <v>28.5</v>
+        <v>92961</v>
       </c>
       <c r="G7" t="n">
-        <v>98259</v>
+        <v>8.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>30848</v>
       </c>
       <c r="I7" t="n">
-        <v>14278</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1201</v>
+        <v>35.9</v>
       </c>
       <c r="L7" t="n">
-        <v>33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>113737</v>
-      </c>
-      <c r="N7" t="inlineStr">
+        <v>123809</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -800,42 +777,39 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>138589</v>
       </c>
       <c r="C8" t="n">
-        <v>138589</v>
+        <v>78.8</v>
       </c>
       <c r="D8" t="n">
-        <v>74.5</v>
+        <v>109141</v>
       </c>
       <c r="E8" t="n">
-        <v>103188</v>
+        <v>16.8</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2</v>
+        <v>23294</v>
       </c>
       <c r="G8" t="n">
-        <v>32126</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>6154</v>
       </c>
       <c r="I8" t="n">
-        <v>3275</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="L8" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>35401</v>
-      </c>
-      <c r="N8" t="inlineStr">
+        <v>29448</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -848,28 +822,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>82380</v>
       </c>
       <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
         <v>82380</v>
       </c>
-      <c r="D9" t="n">
-        <v>75.7</v>
-      </c>
       <c r="E9" t="n">
-        <v>62340</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13805</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6236</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -878,14 +852,11 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>20041</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -896,42 +867,39 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>94677</v>
       </c>
       <c r="C10" t="n">
-        <v>94677</v>
+        <v>60.4</v>
       </c>
       <c r="D10" t="n">
-        <v>71.09999999999999</v>
+        <v>57184</v>
       </c>
       <c r="E10" t="n">
-        <v>67289</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>25.2</v>
+        <v>35038</v>
       </c>
       <c r="G10" t="n">
-        <v>23845</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2456</v>
       </c>
       <c r="I10" t="n">
-        <v>2647</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>896</v>
+        <v>39.6</v>
       </c>
       <c r="L10" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>27388</v>
-      </c>
-      <c r="N10" t="inlineStr">
+        <v>37494</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -944,44 +912,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>469612</v>
       </c>
       <c r="C11" t="n">
-        <v>469612</v>
+        <v>86.2</v>
       </c>
       <c r="D11" t="n">
-        <v>77.40000000000001</v>
+        <v>404809</v>
       </c>
       <c r="E11" t="n">
-        <v>363402</v>
+        <v>13.8</v>
       </c>
       <c r="F11" t="n">
-        <v>18.4</v>
+        <v>64803</v>
       </c>
       <c r="G11" t="n">
-        <v>86190</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16642</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3379</v>
+        <v>13.8</v>
       </c>
       <c r="L11" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>106210</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>64803</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -992,42 +957,39 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>113855</v>
       </c>
       <c r="C12" t="n">
-        <v>113855</v>
+        <v>72.3</v>
       </c>
       <c r="D12" t="n">
-        <v>64.7</v>
+        <v>82295</v>
       </c>
       <c r="E12" t="n">
-        <v>73705</v>
+        <v>18.4</v>
       </c>
       <c r="F12" t="n">
-        <v>18.5</v>
+        <v>20995</v>
       </c>
       <c r="G12" t="n">
-        <v>21096</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>10565</v>
       </c>
       <c r="I12" t="n">
-        <v>10036</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9017</v>
+        <v>27.7</v>
       </c>
       <c r="L12" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>40150</v>
-      </c>
-      <c r="N12" t="inlineStr">
+        <v>31560</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1040,42 +1002,39 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>147696</v>
       </c>
       <c r="C13" t="n">
-        <v>147696</v>
+        <v>32.4</v>
       </c>
       <c r="D13" t="n">
-        <v>41.8</v>
+        <v>47897</v>
       </c>
       <c r="E13" t="n">
-        <v>61772</v>
+        <v>58.2</v>
       </c>
       <c r="F13" t="n">
-        <v>51.1</v>
+        <v>85960</v>
       </c>
       <c r="G13" t="n">
-        <v>75470</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>8754</v>
       </c>
       <c r="I13" t="n">
-        <v>9675</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>5086</v>
       </c>
       <c r="K13" t="n">
-        <v>779</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>85924</v>
-      </c>
-      <c r="N13" t="inlineStr">
+        <v>99799</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1088,42 +1047,39 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>94050</v>
       </c>
       <c r="C14" t="n">
-        <v>94050</v>
+        <v>55.5</v>
       </c>
       <c r="D14" t="n">
-        <v>65.8</v>
+        <v>52237</v>
       </c>
       <c r="E14" t="n">
-        <v>61865</v>
+        <v>40.4</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>38011</v>
       </c>
       <c r="G14" t="n">
-        <v>24464</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>3802</v>
       </c>
       <c r="I14" t="n">
-        <v>7317</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>403</v>
+        <v>44.5</v>
       </c>
       <c r="L14" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>32185</v>
-      </c>
-      <c r="N14" t="inlineStr">
+        <v>41813</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1136,44 +1092,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>291446</v>
       </c>
       <c r="C15" t="n">
-        <v>291446</v>
+        <v>80.8</v>
       </c>
       <c r="D15" t="n">
-        <v>77.09999999999999</v>
+        <v>235547</v>
       </c>
       <c r="E15" t="n">
-        <v>224720</v>
+        <v>19.2</v>
       </c>
       <c r="F15" t="n">
-        <v>17.6</v>
+        <v>55899</v>
       </c>
       <c r="G15" t="n">
-        <v>51440</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15286</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="L15" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="M15" t="n">
-        <v>66726</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>55899</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1184,42 +1137,39 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>210768</v>
       </c>
       <c r="C16" t="n">
-        <v>210768</v>
+        <v>60.9</v>
       </c>
       <c r="D16" t="n">
-        <v>48.4</v>
+        <v>128310</v>
       </c>
       <c r="E16" t="n">
-        <v>101932</v>
+        <v>37.7</v>
       </c>
       <c r="F16" t="n">
-        <v>45.3</v>
+        <v>79557</v>
       </c>
       <c r="G16" t="n">
-        <v>95540</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>2901</v>
       </c>
       <c r="I16" t="n">
-        <v>11614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1681</v>
+        <v>39.1</v>
       </c>
       <c r="L16" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>108835</v>
-      </c>
-      <c r="N16" t="inlineStr">
+        <v>82458</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1232,42 +1182,39 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>70760</v>
       </c>
       <c r="C17" t="n">
-        <v>70760</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>85.5</v>
+        <v>65883</v>
       </c>
       <c r="E17" t="n">
-        <v>60490</v>
+        <v>6.9</v>
       </c>
       <c r="F17" t="n">
-        <v>10.9</v>
+        <v>4877</v>
       </c>
       <c r="G17" t="n">
-        <v>7743</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2528</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="L17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10271</v>
-      </c>
-      <c r="N17" t="inlineStr">
+        <v>4877</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -1280,42 +1227,39 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>81840</v>
       </c>
       <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
         <v>81840</v>
       </c>
-      <c r="D18" t="n">
-        <v>92.5</v>
-      </c>
       <c r="E18" t="n">
-        <v>75687</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2975</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6153</v>
-      </c>
-      <c r="N18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -1328,44 +1272,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>85275</v>
       </c>
       <c r="C19" t="n">
-        <v>85275</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>87.09999999999999</v>
+        <v>61931</v>
       </c>
       <c r="E19" t="n">
-        <v>74295</v>
+        <v>27.4</v>
       </c>
       <c r="F19" t="n">
-        <v>8.5</v>
+        <v>23345</v>
       </c>
       <c r="G19" t="n">
-        <v>7273</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3707</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="L19" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10980</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1-2</t>
+        <v>23345</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -503,29 +503,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114297</v>
+        <v>251037</v>
       </c>
       <c r="C2" t="n">
         <v>86.8</v>
       </c>
       <c r="D2" t="n">
-        <v>99264</v>
+        <v>218019</v>
       </c>
       <c r="E2" t="n">
         <v>4.1</v>
       </c>
       <c r="F2" t="n">
-        <v>4653</v>
+        <v>10220</v>
       </c>
       <c r="G2" t="n">
         <v>9.1</v>
       </c>
       <c r="H2" t="n">
-        <v>10380</v>
+        <v>22798</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>13.2</v>
       </c>
       <c r="L2" t="n">
-        <v>15033</v>
+        <v>33018</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -548,74 +548,74 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59845</v>
+        <v>114297</v>
       </c>
       <c r="C3" t="n">
-        <v>30.5</v>
+        <v>86.8</v>
       </c>
       <c r="D3" t="n">
-        <v>18242</v>
+        <v>99264</v>
       </c>
       <c r="E3" t="n">
-        <v>65.7</v>
+        <v>4.1</v>
       </c>
       <c r="F3" t="n">
-        <v>39317</v>
+        <v>4653</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2184</v>
+        <v>10380</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>69.5</v>
+        <v>13.2</v>
       </c>
       <c r="L3" t="n">
-        <v>41604</v>
+        <v>15033</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86336</v>
+        <v>103549</v>
       </c>
       <c r="C4" t="n">
-        <v>66.2</v>
+        <v>86.8</v>
       </c>
       <c r="D4" t="n">
-        <v>57184</v>
+        <v>89929</v>
       </c>
       <c r="E4" t="n">
-        <v>33.8</v>
+        <v>4.1</v>
       </c>
       <c r="F4" t="n">
-        <v>29152</v>
+        <v>4216</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9404</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -624,55 +624,55 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.8</v>
+        <v>13.2</v>
       </c>
       <c r="L4" t="n">
-        <v>29152</v>
+        <v>13619</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96362</v>
+        <v>100033</v>
       </c>
       <c r="C5" t="n">
-        <v>15.8</v>
+        <v>30.5</v>
       </c>
       <c r="D5" t="n">
-        <v>15230</v>
+        <v>30491</v>
       </c>
       <c r="E5" t="n">
-        <v>73.5</v>
+        <v>65.7</v>
       </c>
       <c r="F5" t="n">
-        <v>70783</v>
+        <v>65720</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3617</v>
+        <v>3651</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>6732</v>
+        <v>170</v>
       </c>
       <c r="K5" t="n">
-        <v>84.2</v>
+        <v>69.5</v>
       </c>
       <c r="L5" t="n">
-        <v>81132</v>
+        <v>69542</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -683,41 +683,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR002006</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251037</v>
+        <v>345131</v>
       </c>
       <c r="C6" t="n">
-        <v>11.1</v>
+        <v>30.5</v>
       </c>
       <c r="D6" t="n">
-        <v>27988</v>
+        <v>105200</v>
       </c>
       <c r="E6" t="n">
-        <v>87.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="F6" t="n">
-        <v>220651</v>
+        <v>226746</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2398</v>
+        <v>12597</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="K6" t="n">
-        <v>88.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="L6" t="n">
-        <v>223050</v>
+        <v>239930</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -728,41 +728,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR002007</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345131</v>
+        <v>85923</v>
       </c>
       <c r="C7" t="n">
-        <v>64.09999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="D7" t="n">
-        <v>221321</v>
+        <v>26190</v>
       </c>
       <c r="E7" t="n">
-        <v>26.9</v>
+        <v>65.7</v>
       </c>
       <c r="F7" t="n">
-        <v>92961</v>
+        <v>56450</v>
       </c>
       <c r="G7" t="n">
-        <v>8.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>30848</v>
+        <v>3136</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="K7" t="n">
-        <v>35.9</v>
+        <v>69.5</v>
       </c>
       <c r="L7" t="n">
-        <v>123809</v>
+        <v>59733</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -773,29 +773,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR008003</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138589</v>
+        <v>206737</v>
       </c>
       <c r="C8" t="n">
-        <v>78.8</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>109141</v>
+        <v>206737</v>
       </c>
       <c r="E8" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23294</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6154</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -804,37 +804,37 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>29448</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82380</v>
+        <v>274302</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>82380</v>
+        <v>24698</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>249604</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -849,43 +849,43 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>249604</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94677</v>
+        <v>52804</v>
       </c>
       <c r="C10" t="n">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>57184</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>35038</v>
+        <v>52804</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>39.6</v>
+        <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>37494</v>
+        <v>52804</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -908,23 +908,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469612</v>
+        <v>570244</v>
       </c>
       <c r="C11" t="n">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>64803</v>
+        <v>570244</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -939,43 +939,43 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>64803</v>
+        <v>570244</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113855</v>
+        <v>88601</v>
       </c>
       <c r="C12" t="n">
-        <v>72.3</v>
+        <v>28.7</v>
       </c>
       <c r="D12" t="n">
-        <v>82295</v>
+        <v>25463</v>
       </c>
       <c r="E12" t="n">
-        <v>18.4</v>
+        <v>47.3</v>
       </c>
       <c r="F12" t="n">
-        <v>20995</v>
+        <v>41873</v>
       </c>
       <c r="G12" t="n">
-        <v>9.300000000000001</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>10565</v>
+        <v>21265</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -984,88 +984,88 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.7</v>
+        <v>71.3</v>
       </c>
       <c r="L12" t="n">
-        <v>31560</v>
+        <v>63138</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147696</v>
+        <v>134467</v>
       </c>
       <c r="C13" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>47897</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.2</v>
+        <v>78.8</v>
       </c>
       <c r="F13" t="n">
-        <v>85960</v>
+        <v>105896</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>21.2</v>
       </c>
       <c r="H13" t="n">
-        <v>8754</v>
+        <v>28571</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5086</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>99799</v>
+        <v>134467</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94050</v>
+        <v>109640</v>
       </c>
       <c r="C14" t="n">
-        <v>55.5</v>
+        <v>17.7</v>
       </c>
       <c r="D14" t="n">
-        <v>52237</v>
+        <v>19410</v>
       </c>
       <c r="E14" t="n">
-        <v>40.4</v>
+        <v>82.3</v>
       </c>
       <c r="F14" t="n">
-        <v>38011</v>
+        <v>90230</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3802</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.5</v>
+        <v>82.3</v>
       </c>
       <c r="L14" t="n">
-        <v>41813</v>
+        <v>90230</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1088,23 +1088,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>291446</v>
+        <v>34010</v>
       </c>
       <c r="C15" t="n">
-        <v>80.8</v>
+        <v>8.5</v>
       </c>
       <c r="D15" t="n">
-        <v>235547</v>
+        <v>2879</v>
       </c>
       <c r="E15" t="n">
-        <v>19.2</v>
+        <v>91.5</v>
       </c>
       <c r="F15" t="n">
-        <v>55899</v>
+        <v>31131</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1119,55 +1119,55 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>19.2</v>
+        <v>91.5</v>
       </c>
       <c r="L15" t="n">
-        <v>55899</v>
+        <v>31131</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210768</v>
+        <v>185972</v>
       </c>
       <c r="C16" t="n">
-        <v>60.9</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="n">
-        <v>128310</v>
+        <v>7003</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7</v>
+        <v>83.3</v>
       </c>
       <c r="F16" t="n">
-        <v>79557</v>
+        <v>154910</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24058</v>
       </c>
       <c r="K16" t="n">
-        <v>39.1</v>
+        <v>96.2</v>
       </c>
       <c r="L16" t="n">
-        <v>82458</v>
+        <v>178968</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1178,62 +1178,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>MMR012007</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70760</v>
+        <v>25393</v>
       </c>
       <c r="C17" t="n">
-        <v>93.09999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="D17" t="n">
-        <v>65883</v>
+        <v>9121</v>
       </c>
       <c r="E17" t="n">
-        <v>6.9</v>
+        <v>53.6</v>
       </c>
       <c r="F17" t="n">
-        <v>4877</v>
+        <v>13610</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1841</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="K17" t="n">
-        <v>6.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>4877</v>
+        <v>16272</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81840</v>
+        <v>140311</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>81840</v>
+        <v>140311</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1268,23 +1268,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MMR018</t>
+          <t>MMR012011</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85275</v>
+        <v>93763</v>
       </c>
       <c r="C19" t="n">
-        <v>72.59999999999999</v>
+        <v>41.9</v>
       </c>
       <c r="D19" t="n">
-        <v>61931</v>
+        <v>39294</v>
       </c>
       <c r="E19" t="n">
-        <v>27.4</v>
+        <v>58.1</v>
       </c>
       <c r="F19" t="n">
-        <v>23345</v>
+        <v>54469</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1299,14 +1299,149 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>27.4</v>
+        <v>58.1</v>
       </c>
       <c r="L19" t="n">
-        <v>23345</v>
+        <v>54469</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MMR012014</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>503156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18497</v>
+      </c>
+      <c r="E20" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>484659</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>484659</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MMR012015</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>114132</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44104</v>
+      </c>
+      <c r="E21" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70028</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>70028</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MMR012016</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>94050</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94050</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>

--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -503,176 +503,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251037</v>
+        <v>114297</v>
       </c>
       <c r="C2" t="n">
-        <v>86.8</v>
+        <v>72.5</v>
       </c>
       <c r="D2" t="n">
-        <v>218019</v>
+        <v>82816</v>
       </c>
       <c r="E2" t="n">
-        <v>4.1</v>
+        <v>23.8</v>
       </c>
       <c r="F2" t="n">
-        <v>10220</v>
+        <v>27148</v>
       </c>
       <c r="G2" t="n">
-        <v>9.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>22798</v>
+        <v>3711</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="K2" t="n">
-        <v>13.2</v>
+        <v>27.5</v>
       </c>
       <c r="L2" t="n">
-        <v>33018</v>
+        <v>31481</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114297</v>
+        <v>59845</v>
       </c>
       <c r="C3" t="n">
-        <v>86.8</v>
+        <v>28.6</v>
       </c>
       <c r="D3" t="n">
-        <v>99264</v>
+        <v>17095</v>
       </c>
       <c r="E3" t="n">
-        <v>4.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>4653</v>
+        <v>40017</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>10380</v>
+        <v>2112</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>13.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>15033</v>
+        <v>42751</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103549</v>
+        <v>86336</v>
       </c>
       <c r="C4" t="n">
-        <v>86.8</v>
+        <v>52.9</v>
       </c>
       <c r="D4" t="n">
-        <v>89929</v>
+        <v>45681</v>
       </c>
       <c r="E4" t="n">
-        <v>4.1</v>
+        <v>41.2</v>
       </c>
       <c r="F4" t="n">
-        <v>4216</v>
+        <v>35594</v>
       </c>
       <c r="G4" t="n">
-        <v>9.1</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>9404</v>
+        <v>4341</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="K4" t="n">
-        <v>13.2</v>
+        <v>47.1</v>
       </c>
       <c r="L4" t="n">
-        <v>13619</v>
+        <v>40655</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100033</v>
+        <v>96362</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5</v>
+        <v>29.6</v>
       </c>
       <c r="D5" t="n">
-        <v>30491</v>
+        <v>28517</v>
       </c>
       <c r="E5" t="n">
-        <v>65.7</v>
+        <v>66</v>
       </c>
       <c r="F5" t="n">
-        <v>65720</v>
+        <v>63559</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3651</v>
+        <v>3334</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>170</v>
+        <v>952</v>
       </c>
       <c r="K5" t="n">
-        <v>69.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>69542</v>
+        <v>67845</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -683,41 +683,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MMR002006</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345131</v>
+        <v>251037</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5</v>
+        <v>18.7</v>
       </c>
       <c r="D6" t="n">
-        <v>105200</v>
+        <v>46878</v>
       </c>
       <c r="E6" t="n">
-        <v>65.7</v>
+        <v>75.7</v>
       </c>
       <c r="F6" t="n">
-        <v>226746</v>
+        <v>190045</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>12597</v>
+        <v>10513</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>587</v>
+        <v>3601</v>
       </c>
       <c r="K6" t="n">
-        <v>69.5</v>
+        <v>81.3</v>
       </c>
       <c r="L6" t="n">
-        <v>239930</v>
+        <v>204159</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -728,41 +728,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMR002007</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85923</v>
+        <v>345131</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>26190</v>
+        <v>231393</v>
       </c>
       <c r="E7" t="n">
-        <v>65.7</v>
+        <v>28.5</v>
       </c>
       <c r="F7" t="n">
-        <v>56450</v>
+        <v>98259</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3136</v>
+        <v>14278</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>146</v>
+        <v>1201</v>
       </c>
       <c r="K7" t="n">
-        <v>69.5</v>
+        <v>33</v>
       </c>
       <c r="L7" t="n">
-        <v>59733</v>
+        <v>113737</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -773,29 +773,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMR008003</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206737</v>
+        <v>138589</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="D8" t="n">
-        <v>206737</v>
+        <v>103188</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>32126</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3275</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -804,43 +804,43 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>35401</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR008</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>274302</v>
+        <v>82380</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>75.7</v>
       </c>
       <c r="D9" t="n">
-        <v>24698</v>
+        <v>62340</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>16.8</v>
       </c>
       <c r="F9" t="n">
-        <v>249604</v>
+        <v>13805</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>91</v>
+        <v>24.3</v>
       </c>
       <c r="L9" t="n">
-        <v>249604</v>
+        <v>20041</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -863,41 +863,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52804</v>
+        <v>94677</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67289</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>25.2</v>
       </c>
       <c r="F10" t="n">
-        <v>52804</v>
+        <v>23845</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2647</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>28.9</v>
       </c>
       <c r="L10" t="n">
-        <v>52804</v>
+        <v>27388</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -908,41 +908,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR010</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>570244</v>
+        <v>469612</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="F11" t="n">
-        <v>570244</v>
+        <v>86190</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="L11" t="n">
-        <v>570244</v>
+        <v>106210</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -953,131 +953,131 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88601</v>
+        <v>113855</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7</v>
+        <v>64.7</v>
       </c>
       <c r="D12" t="n">
-        <v>25463</v>
+        <v>73705</v>
       </c>
       <c r="E12" t="n">
-        <v>47.3</v>
+        <v>18.5</v>
       </c>
       <c r="F12" t="n">
-        <v>41873</v>
+        <v>21096</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>21265</v>
+        <v>10036</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="K12" t="n">
-        <v>71.3</v>
+        <v>35.3</v>
       </c>
       <c r="L12" t="n">
-        <v>63138</v>
+        <v>40150</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134467</v>
+        <v>147696</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>61772</v>
       </c>
       <c r="E13" t="n">
-        <v>78.8</v>
+        <v>51.1</v>
       </c>
       <c r="F13" t="n">
-        <v>105896</v>
+        <v>75470</v>
       </c>
       <c r="G13" t="n">
-        <v>21.2</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>28571</v>
+        <v>9675</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>58.2</v>
       </c>
       <c r="L13" t="n">
-        <v>134467</v>
+        <v>85924</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR013</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109640</v>
+        <v>94050</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7</v>
+        <v>65.8</v>
       </c>
       <c r="D14" t="n">
-        <v>19410</v>
+        <v>61865</v>
       </c>
       <c r="E14" t="n">
-        <v>82.3</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>90230</v>
+        <v>24464</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7317</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>82.3</v>
+        <v>34.2</v>
       </c>
       <c r="L14" t="n">
-        <v>90230</v>
+        <v>32185</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1088,29 +1088,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34010</v>
+        <v>291446</v>
       </c>
       <c r="C15" t="n">
-        <v>8.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>2879</v>
+        <v>224720</v>
       </c>
       <c r="E15" t="n">
-        <v>91.5</v>
+        <v>17.6</v>
       </c>
       <c r="F15" t="n">
-        <v>31131</v>
+        <v>51440</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>15286</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.5</v>
+        <v>22.9</v>
       </c>
       <c r="L15" t="n">
-        <v>31131</v>
+        <v>66726</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1133,41 +1133,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR015</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185972</v>
+        <v>210768</v>
       </c>
       <c r="C16" t="n">
-        <v>3.8</v>
+        <v>48.4</v>
       </c>
       <c r="D16" t="n">
-        <v>7003</v>
+        <v>101932</v>
       </c>
       <c r="E16" t="n">
-        <v>83.3</v>
+        <v>45.3</v>
       </c>
       <c r="F16" t="n">
-        <v>154910</v>
+        <v>95540</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11614</v>
       </c>
       <c r="I16" t="n">
-        <v>12.9</v>
+        <v>0.8</v>
       </c>
       <c r="J16" t="n">
-        <v>24058</v>
+        <v>1681</v>
       </c>
       <c r="K16" t="n">
-        <v>96.2</v>
+        <v>51.6</v>
       </c>
       <c r="L16" t="n">
-        <v>178968</v>
+        <v>108835</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1178,86 +1178,86 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MMR012007</t>
+          <t>MMR016</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25393</v>
+        <v>70760</v>
       </c>
       <c r="C17" t="n">
-        <v>35.9</v>
+        <v>85.5</v>
       </c>
       <c r="D17" t="n">
-        <v>9121</v>
+        <v>60490</v>
       </c>
       <c r="E17" t="n">
-        <v>53.6</v>
+        <v>10.9</v>
       </c>
       <c r="F17" t="n">
-        <v>13610</v>
+        <v>7743</v>
       </c>
       <c r="G17" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1841</v>
+        <v>2528</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>64.09999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="L17" t="n">
-        <v>16272</v>
+        <v>10271</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR017</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>140311</v>
+        <v>81840</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="D18" t="n">
-        <v>140311</v>
+        <v>75687</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2975</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2695</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6153</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1268,29 +1268,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MMR012011</t>
+          <t>MMR018</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93763</v>
+        <v>85275</v>
       </c>
       <c r="C19" t="n">
-        <v>41.9</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>39294</v>
+        <v>74295</v>
       </c>
       <c r="E19" t="n">
-        <v>58.1</v>
+        <v>8.5</v>
       </c>
       <c r="F19" t="n">
-        <v>54469</v>
+        <v>7273</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3707</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1299,147 +1299,12 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>58.1</v>
+        <v>12.9</v>
       </c>
       <c r="L19" t="n">
-        <v>54469</v>
+        <v>10980</v>
       </c>
       <c r="M19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MMR012014</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>503156</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18497</v>
-      </c>
-      <c r="E20" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>484659</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>484659</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MMR012015</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>114132</v>
-      </c>
-      <c r="C21" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44104</v>
-      </c>
-      <c r="E21" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>70028</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>70028</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MMR012016</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>94050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" t="n">
-        <v>94050</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>

--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
+          <t>% niveaux de sévérité 1-2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t># severity levels 1-2</t>
+          <t># niveaux de sévérité 1-2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
+          <t>% niveau de sévérité 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t># severity level 3</t>
+          <t># niveau de sévérité 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
+          <t>% niveau de sévérité 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t># severity level 4</t>
+          <t># niveau de sévérité 4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
+          <t>% niveau de sévérité 5</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t># severity level 5</t>
+          <t># niveau de sévérité 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t>% Tot PiN (niveaux de sévérité 3-5)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (niveaux de sévérité 3-5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Area severity</t>
+          <t>Sévérité de la zone</t>
         </is>
       </c>
     </row>

--- a/output_validation/06_pin_tot_by_admin_area_severity.xlsx
+++ b/output_validation/06_pin_tot_by_admin_area_severity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TotN</t>
+          <t>Population totale</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
